--- a/sigset/documentos/Seminario/flujo de caja del proyecto.xlsx
+++ b/sigset/documentos/Seminario/flujo de caja del proyecto.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="120" yWindow="15" windowWidth="15135" windowHeight="6090"/>
   </bookViews>
   <sheets>
-    <sheet name="Flujo de caja proyecto" sheetId="1" r:id="rId1"/>
-    <sheet name="Recuperacón inversión" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1185,9 +1185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>

--- a/sigset/documentos/Seminario/flujo de caja del proyecto.xlsx
+++ b/sigset/documentos/Seminario/flujo de caja del proyecto.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
   <si>
     <t>Costos Google engine</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>Otros Ingresos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total </t>
   </si>
   <si>
     <t>Factores</t>
@@ -421,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -459,7 +456,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -482,6 +478,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -914,7 +916,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -947,10 +949,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.42578125" defaultRowHeight="15"/>
@@ -962,56 +964,56 @@
       <c r="A1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38" t="s">
         <v>84</v>
-      </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="C2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <v>50000</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="37">
+      <c r="E2" s="33"/>
+      <c r="F2" s="36">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="C3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="38">
+        <v>82</v>
+      </c>
+      <c r="D3" s="37">
         <f>'Valores Google'!D18</f>
         <v>10166.986666666666</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37">
+      <c r="E3" s="36"/>
+      <c r="F3" s="36">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="42" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1020,23 +1022,23 @@
         <v>45</v>
       </c>
       <c r="B5" s="18">
+        <f>$E21</f>
+        <v>6000000</v>
+      </c>
+      <c r="C5" s="18">
+        <f>$E22</f>
+        <v>7800000</v>
+      </c>
+      <c r="D5" s="18">
         <f>$E23</f>
-        <v>6000000</v>
-      </c>
-      <c r="C5" s="18">
+        <v>9600000</v>
+      </c>
+      <c r="E5" s="18">
         <f>$E24</f>
-        <v>7800000</v>
-      </c>
-      <c r="D5" s="18">
+        <v>10800000</v>
+      </c>
+      <c r="F5" s="18">
         <f>$E25</f>
-        <v>9600000</v>
-      </c>
-      <c r="E5" s="18">
-        <f>$E26</f>
-        <v>10800000</v>
-      </c>
-      <c r="F5" s="18">
-        <f>$E27</f>
         <v>12600000</v>
       </c>
     </row>
@@ -1044,403 +1046,429 @@
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="A7" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="39">
+        <f>SUM(B5:B6)</f>
+        <v>6000000</v>
+      </c>
+      <c r="C7" s="39">
+        <f t="shared" ref="C7:F7" si="0">SUM(C5:C6)</f>
+        <v>7800000</v>
+      </c>
+      <c r="D7" s="39">
+        <f t="shared" si="0"/>
+        <v>9600000</v>
+      </c>
+      <c r="E7" s="39">
+        <f t="shared" si="0"/>
+        <v>10800000</v>
+      </c>
+      <c r="F7" s="39">
+        <f t="shared" si="0"/>
+        <v>12600000</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="18">
+        <f>$E30</f>
+        <v>1220038.3999999999</v>
+      </c>
+      <c r="C8" s="18">
+        <f>$E31</f>
+        <v>1586049.92</v>
+      </c>
+      <c r="D8" s="18">
         <f>$E32</f>
-        <v>1220038.3999999999</v>
-      </c>
-      <c r="C8" s="18">
+        <v>1952061.4399999999</v>
+      </c>
+      <c r="E8" s="18">
         <f>$E33</f>
-        <v>1586049.92</v>
-      </c>
-      <c r="D8" s="18">
+        <v>2196069.1199999996</v>
+      </c>
+      <c r="F8" s="18">
         <f>$E34</f>
-        <v>1952061.4399999999</v>
-      </c>
-      <c r="E8" s="18">
-        <f>$E35</f>
-        <v>2196069.1199999996</v>
-      </c>
-      <c r="F8" s="18">
-        <f>$E36</f>
         <v>2562080.6399999997</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="B9" s="18">
+        <v>300000</v>
+      </c>
+      <c r="C9" s="18">
+        <v>300000</v>
+      </c>
+      <c r="D9" s="18">
+        <v>300000</v>
+      </c>
+      <c r="E9" s="18">
+        <v>300000</v>
+      </c>
+      <c r="F9" s="18">
+        <v>600000</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="A10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="40">
+        <f>SUM(B8:B9)</f>
+        <v>1520038.4</v>
+      </c>
+      <c r="C10" s="40">
+        <f t="shared" ref="C10:F10" si="1">SUM(C8:C9)</f>
+        <v>1886049.92</v>
+      </c>
+      <c r="D10" s="40">
+        <f t="shared" si="1"/>
+        <v>2252061.44</v>
+      </c>
+      <c r="E10" s="40">
+        <f t="shared" si="1"/>
+        <v>2496069.1199999996</v>
+      </c>
+      <c r="F10" s="40">
+        <f t="shared" si="1"/>
+        <v>3162080.6399999997</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="B11" s="32">
+        <f>SUM(B7-B10)</f>
+        <v>4479961.5999999996</v>
+      </c>
+      <c r="C11" s="32">
+        <f t="shared" ref="C11:F11" si="2">SUM(C7-C10)</f>
+        <v>5913950.0800000001</v>
+      </c>
+      <c r="D11" s="32">
+        <f t="shared" si="2"/>
+        <v>7347938.5600000005</v>
+      </c>
+      <c r="E11" s="32">
+        <f t="shared" si="2"/>
+        <v>8303930.8800000008</v>
+      </c>
+      <c r="F11" s="32">
+        <f t="shared" si="2"/>
+        <v>9437919.3599999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="6">
-        <f>SUM(B5:B12)</f>
-        <v>7220038.4000000004</v>
-      </c>
-      <c r="C13" s="6">
-        <f t="shared" ref="C13:F13" si="0">SUM(C5:C12)</f>
-        <v>9386049.9199999999</v>
-      </c>
-      <c r="D13" s="6">
-        <f t="shared" si="0"/>
-        <v>11552061.439999999</v>
-      </c>
-      <c r="E13" s="6">
-        <f t="shared" si="0"/>
-        <v>12996069.119999999</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="0"/>
-        <v>15162080.640000001</v>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>48</v>
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10</v>
+      </c>
+      <c r="C17" s="18">
+        <v>50000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="21" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1"/>
+      <c r="B20" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
         <v>10</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C21" s="18">
+        <f>$C$17</f>
         <v>50000</v>
       </c>
-      <c r="D19" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="D21" s="18">
+        <f>C21*B21</f>
+        <v>500000</v>
+      </c>
+      <c r="E21" s="18">
+        <f>D21*$D$17</f>
+        <v>6000000</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1"/>
-      <c r="B22" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>56</v>
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>13</v>
+      </c>
+      <c r="C22" s="18">
+        <f t="shared" ref="C22:C25" si="3">$C$17</f>
+        <v>50000</v>
+      </c>
+      <c r="D22" s="18">
+        <f t="shared" ref="D22:D25" si="4">C22*B22</f>
+        <v>650000</v>
+      </c>
+      <c r="E22" s="18">
+        <f t="shared" ref="E22:E25" si="5">D22*$D$17</f>
+        <v>7800000</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C23" s="18">
-        <f>$C$19</f>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
       <c r="D23" s="18">
-        <f>C23*B23</f>
-        <v>500000</v>
+        <f t="shared" si="4"/>
+        <v>800000</v>
       </c>
       <c r="E23" s="18">
-        <f>D23*$D$19</f>
-        <v>6000000</v>
+        <f t="shared" si="5"/>
+        <v>9600000</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C24" s="18">
-        <f t="shared" ref="C24:C27" si="1">$C$19</f>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
       <c r="D24" s="18">
-        <f t="shared" ref="D24:D27" si="2">C24*B24</f>
-        <v>650000</v>
+        <f t="shared" si="4"/>
+        <v>900000</v>
       </c>
       <c r="E24" s="18">
-        <f t="shared" ref="E24:E27" si="3">D24*$D$19</f>
-        <v>7800000</v>
+        <f t="shared" si="5"/>
+        <v>10800000</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C25" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
       <c r="D25" s="18">
-        <f t="shared" si="2"/>
-        <v>800000</v>
+        <f t="shared" si="4"/>
+        <v>1050000</v>
       </c>
       <c r="E25" s="18">
-        <f t="shared" si="3"/>
-        <v>9600000</v>
+        <f t="shared" si="5"/>
+        <v>12600000</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1">
-        <v>18</v>
-      </c>
-      <c r="C26" s="18">
-        <f t="shared" si="1"/>
-        <v>50000</v>
-      </c>
-      <c r="D26" s="18">
-        <f t="shared" si="2"/>
-        <v>900000</v>
-      </c>
-      <c r="E26" s="18">
-        <f t="shared" si="3"/>
-        <v>10800000</v>
-      </c>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="1">
-        <v>21</v>
-      </c>
-      <c r="C27" s="18">
-        <f t="shared" si="1"/>
-        <v>50000</v>
-      </c>
-      <c r="D27" s="18">
-        <f t="shared" si="2"/>
-        <v>1050000</v>
-      </c>
-      <c r="E27" s="18">
-        <f t="shared" si="3"/>
-        <v>12600000</v>
-      </c>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="14"/>
+      <c r="A28" s="23" t="s">
+        <v>52</v>
+      </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1">
+        <v>10</v>
+      </c>
+      <c r="C30" s="18">
+        <f>$D$3</f>
+        <v>10166.986666666666</v>
+      </c>
+      <c r="D30" s="18">
+        <f>C30*B30</f>
+        <v>101669.86666666665</v>
+      </c>
+      <c r="E30" s="18">
+        <f>D30*$D$17</f>
+        <v>1220038.3999999999</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="1"/>
-      <c r="B31" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>56</v>
+      <c r="A31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1">
+        <v>13</v>
+      </c>
+      <c r="C31" s="18">
+        <f t="shared" ref="C31:C34" si="6">$D$3</f>
+        <v>10166.986666666666</v>
+      </c>
+      <c r="D31" s="18">
+        <f t="shared" ref="D31:D34" si="7">C31*B31</f>
+        <v>132170.82666666666</v>
+      </c>
+      <c r="E31" s="18">
+        <f t="shared" ref="E31:E34" si="8">D31*$D$17</f>
+        <v>1586049.92</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B32" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C32" s="18">
-        <f>$D$3</f>
+        <f t="shared" si="6"/>
         <v>10166.986666666666</v>
       </c>
       <c r="D32" s="18">
-        <f>C32*B32</f>
-        <v>101669.86666666665</v>
+        <f t="shared" si="7"/>
+        <v>162671.78666666665</v>
       </c>
       <c r="E32" s="18">
-        <f>D32*$D$19</f>
-        <v>1220038.3999999999</v>
+        <f t="shared" si="8"/>
+        <v>1952061.4399999999</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C33" s="18">
-        <f t="shared" ref="C33:C36" si="4">$D$3</f>
+        <f t="shared" si="6"/>
         <v>10166.986666666666</v>
       </c>
       <c r="D33" s="18">
-        <f t="shared" ref="D33:D36" si="5">C33*B33</f>
-        <v>132170.82666666666</v>
+        <f t="shared" si="7"/>
+        <v>183005.75999999998</v>
       </c>
       <c r="E33" s="18">
-        <f t="shared" ref="E33:E36" si="6">D33*$D$19</f>
-        <v>1586049.92</v>
+        <f t="shared" si="8"/>
+        <v>2196069.1199999996</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B34" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C34" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10166.986666666666</v>
       </c>
       <c r="D34" s="18">
-        <f t="shared" si="5"/>
-        <v>162671.78666666665</v>
+        <f t="shared" si="7"/>
+        <v>213506.71999999997</v>
       </c>
       <c r="E34" s="18">
-        <f t="shared" si="6"/>
-        <v>1952061.4399999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="1">
-        <v>18</v>
-      </c>
-      <c r="C35" s="18">
-        <f t="shared" si="4"/>
-        <v>10166.986666666666</v>
-      </c>
-      <c r="D35" s="18">
-        <f t="shared" si="5"/>
-        <v>183005.75999999998</v>
-      </c>
-      <c r="E35" s="18">
-        <f t="shared" si="6"/>
-        <v>2196069.1199999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="1">
-        <v>21</v>
-      </c>
-      <c r="C36" s="18">
-        <f t="shared" si="4"/>
-        <v>10166.986666666666</v>
-      </c>
-      <c r="D36" s="18">
-        <f t="shared" si="5"/>
-        <v>213506.71999999997</v>
-      </c>
-      <c r="E36" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2562080.6399999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1464,21 +1492,21 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="34" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>71</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1491,15 +1519,15 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="36" t="s">
-        <v>78</v>
+      <c r="A6" s="35" t="s">
+        <v>77</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -1507,7 +1535,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1515,7 +1543,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1523,7 +1551,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -1581,7 +1609,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="C26" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
@@ -1612,15 +1640,15 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="26">
+        <v>56</v>
+      </c>
+      <c r="B29" s="25">
         <v>1</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="26">
         <v>800000</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="26">
         <f>B29*C29</f>
         <v>800000</v>
       </c>
@@ -1678,7 +1706,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1719,7 +1747,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
@@ -1778,42 +1806,42 @@
       <c r="D46" s="14"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="29" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>67</v>
+      <c r="D48" s="30" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" s="20">
         <v>3</v>
       </c>
-      <c r="C49" s="32">
+      <c r="C49" s="31">
         <v>20000</v>
       </c>
-      <c r="D49" s="32">
+      <c r="D49" s="31">
         <f>B49*C49</f>
         <v>60000</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="1">
         <v>5</v>
@@ -1821,14 +1849,14 @@
       <c r="C50" s="18">
         <v>20000</v>
       </c>
-      <c r="D50" s="32">
+      <c r="D50" s="31">
         <f t="shared" ref="D50:D55" si="0">B50*C50</f>
         <v>100000</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -1836,14 +1864,14 @@
       <c r="C51" s="18">
         <v>30000</v>
       </c>
-      <c r="D51" s="32">
+      <c r="D51" s="31">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B52" s="1">
         <v>3</v>
@@ -1851,14 +1879,14 @@
       <c r="C52" s="18">
         <v>350000</v>
       </c>
-      <c r="D52" s="32">
+      <c r="D52" s="31">
         <f t="shared" si="0"/>
         <v>1050000</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53" s="1">
         <v>1</v>
@@ -1866,14 +1894,14 @@
       <c r="C53" s="18">
         <v>100000</v>
       </c>
-      <c r="D53" s="32">
+      <c r="D53" s="31">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B54" s="1">
         <v>1</v>
@@ -1881,14 +1909,14 @@
       <c r="C54" s="18">
         <v>30000</v>
       </c>
-      <c r="D54" s="32">
+      <c r="D54" s="31">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" s="1">
         <v>1</v>
@@ -1896,25 +1924,25 @@
       <c r="C55" s="18">
         <v>20000</v>
       </c>
-      <c r="D55" s="32">
+      <c r="D55" s="31">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="C56" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" s="33">
+      <c r="C56" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="32">
         <f>SUM(D49:D55)</f>
         <v>1390000</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="C59" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D59" s="33">
+      <c r="C59" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="32">
         <f>D32*D26</f>
         <v>5400000</v>
       </c>

--- a/sigset/documentos/Seminario/flujo de caja del proyecto.xlsx
+++ b/sigset/documentos/Seminario/flujo de caja del proyecto.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="15135" windowHeight="6090" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="15135" windowHeight="6090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Valores Google" sheetId="1" r:id="rId1"/>
-    <sheet name="Flujo de caja Empresa" sheetId="2" r:id="rId2"/>
-    <sheet name="Flujo de caja proyecto" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
+    <sheet name="Flujo de caja Empresa" sheetId="2" r:id="rId3"/>
+    <sheet name="Flujo de caja proyecto" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
   <si>
     <t>Costos Google engine</t>
   </si>
@@ -150,9 +151,6 @@
     <t>Telefono + Internet</t>
   </si>
   <si>
-    <t>Valor x usuario</t>
-  </si>
-  <si>
     <t>Ingreso</t>
   </si>
   <si>
@@ -264,19 +262,40 @@
     <t>Por usuario</t>
   </si>
   <si>
-    <t>Costo x usuario</t>
-  </si>
-  <si>
     <t>Valor</t>
   </si>
   <si>
-    <t>Meses</t>
-  </si>
-  <si>
     <t>Costo de servicio</t>
   </si>
   <si>
     <t>Remuneracion Soporte técnico</t>
+  </si>
+  <si>
+    <t>Demanda de Clientes</t>
+  </si>
+  <si>
+    <t>Total Pymes</t>
+  </si>
+  <si>
+    <t>Invierten en TI</t>
+  </si>
+  <si>
+    <t>Total Mercado</t>
+  </si>
+  <si>
+    <t>% Mercado esperado</t>
+  </si>
+  <si>
+    <t>Total Demanda Primer año</t>
+  </si>
+  <si>
+    <t>Tasa de crecimiento</t>
+  </si>
+  <si>
+    <t>Valor Software</t>
+  </si>
+  <si>
+    <t>Demanda Clientes</t>
   </si>
 </sst>
 </file>
@@ -418,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -486,6 +505,9 @@
     <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -916,7 +938,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -949,10 +971,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="43">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5">
+        <f>B3*B4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="43">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7">
+        <f>B5*B6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="44"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="44">
+        <f>B7</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="44">
+        <f>($B$9*B12)+B12</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="44">
+        <f t="shared" ref="B14:B16" si="0">($B$9*B13)+B13</f>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="44">
+        <f t="shared" si="0"/>
+        <v>10.125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="44">
+        <f t="shared" si="0"/>
+        <v>15.1875</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="44">
+        <f>SUM(B12:B16)</f>
+        <v>39.5625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.42578125" defaultRowHeight="15"/>
@@ -965,371 +1115,319 @@
         <v>21</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E1" s="38"/>
-      <c r="F1" s="38" t="s">
-        <v>84</v>
-      </c>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:6">
       <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="37">
+        <v>2000000</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="36"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="37">
-        <v>50000</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="C3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="37">
-        <f>'Valores Google'!D18</f>
-        <v>10166.986666666666</v>
-      </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>27</v>
+      <c r="B4" s="18">
+        <f>$E20</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="18">
+        <f>$E21</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="18">
+        <f>$E22</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="18">
+        <f>$E23</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <f>$E24</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="18">
-        <f>$E21</f>
-        <v>6000000</v>
-      </c>
-      <c r="C5" s="18">
-        <f>$E22</f>
-        <v>7800000</v>
-      </c>
-      <c r="D5" s="18">
-        <f>$E23</f>
-        <v>9600000</v>
-      </c>
-      <c r="E5" s="18">
-        <f>$E24</f>
-        <v>10800000</v>
-      </c>
-      <c r="F5" s="18">
-        <f>$E25</f>
-        <v>12600000</v>
-      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="A6" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="39">
+        <f>SUM(B4:B5)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="39">
+        <f t="shared" ref="C6:F6" si="0">SUM(C4:C5)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="39">
-        <f>SUM(B5:B6)</f>
-        <v>6000000</v>
-      </c>
-      <c r="C7" s="39">
-        <f t="shared" ref="C7:F7" si="0">SUM(C5:C6)</f>
-        <v>7800000</v>
-      </c>
-      <c r="D7" s="39">
-        <f t="shared" si="0"/>
-        <v>9600000</v>
-      </c>
-      <c r="E7" s="39">
-        <f t="shared" si="0"/>
-        <v>10800000</v>
-      </c>
-      <c r="F7" s="39">
-        <f t="shared" si="0"/>
-        <v>12600000</v>
+      <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="18" t="e">
+        <f>$E29</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C7" s="18" t="e">
+        <f>$E30</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D7" s="18" t="e">
+        <f>$E31</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E7" s="18" t="e">
+        <f>$E32</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F7" s="18" t="e">
+        <f>$E33</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B8" s="18">
-        <f>$E30</f>
-        <v>1220038.3999999999</v>
+        <v>300000</v>
       </c>
       <c r="C8" s="18">
-        <f>$E31</f>
-        <v>1586049.92</v>
+        <v>300000</v>
       </c>
       <c r="D8" s="18">
-        <f>$E32</f>
-        <v>1952061.4399999999</v>
+        <v>300000</v>
       </c>
       <c r="E8" s="18">
-        <f>$E33</f>
-        <v>2196069.1199999996</v>
+        <v>300000</v>
       </c>
       <c r="F8" s="18">
-        <f>$E34</f>
-        <v>2562080.6399999997</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="18">
-        <v>300000</v>
-      </c>
-      <c r="C9" s="18">
-        <v>300000</v>
-      </c>
-      <c r="D9" s="18">
-        <v>300000</v>
-      </c>
-      <c r="E9" s="18">
-        <v>300000</v>
-      </c>
-      <c r="F9" s="18">
-        <v>600000</v>
+      <c r="A9" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="40" t="e">
+        <f>SUM(B7:B8)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C9" s="40" t="e">
+        <f t="shared" ref="C9:F9" si="1">SUM(C7:C8)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D9" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F9" s="40" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="40">
-        <f>SUM(B8:B9)</f>
-        <v>1520038.4</v>
-      </c>
-      <c r="C10" s="40">
-        <f t="shared" ref="C10:F10" si="1">SUM(C8:C9)</f>
-        <v>1886049.92</v>
-      </c>
-      <c r="D10" s="40">
-        <f t="shared" si="1"/>
-        <v>2252061.44</v>
-      </c>
-      <c r="E10" s="40">
-        <f t="shared" si="1"/>
-        <v>2496069.1199999996</v>
-      </c>
-      <c r="F10" s="40">
-        <f t="shared" si="1"/>
-        <v>3162080.6399999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="32">
-        <f>SUM(B7-B10)</f>
-        <v>4479961.5999999996</v>
-      </c>
-      <c r="C11" s="32">
-        <f t="shared" ref="C11:F11" si="2">SUM(C7-C10)</f>
-        <v>5913950.0800000001</v>
-      </c>
-      <c r="D11" s="32">
+      <c r="B10" s="32" t="e">
+        <f>SUM(B6-B9)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C10" s="32" t="e">
+        <f t="shared" ref="C10:F10" si="2">SUM(C6-C9)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D10" s="32" t="e">
         <f t="shared" si="2"/>
-        <v>7347938.5600000005</v>
-      </c>
-      <c r="E11" s="32">
+        <v>#REF!</v>
+      </c>
+      <c r="E10" s="32" t="e">
         <f t="shared" si="2"/>
-        <v>8303930.8800000008</v>
-      </c>
-      <c r="F11" s="32">
+        <v>#REF!</v>
+      </c>
+      <c r="F10" s="32" t="e">
         <f t="shared" si="2"/>
-        <v>9437919.3599999994</v>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="A15" s="21" t="s">
         <v>47</v>
       </c>
+      <c r="B15" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>50</v>
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10</v>
+      </c>
+      <c r="C16" s="18">
+        <v>50000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1">
-        <v>10</v>
-      </c>
-      <c r="C17" s="18">
-        <v>50000</v>
-      </c>
-      <c r="D17" s="1">
-        <v>12</v>
-      </c>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="14"/>
+      <c r="A18" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>55</v>
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="45">
+        <f>Hoja1!B12</f>
+        <v>3</v>
+      </c>
+      <c r="C20" s="18">
+        <f>$D$2*B20</f>
+        <v>6000000</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="1">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="B21" s="45">
+        <f>Hoja1!B13</f>
+        <v>4.5</v>
       </c>
       <c r="C21" s="18">
-        <f>$C$17</f>
-        <v>50000</v>
-      </c>
-      <c r="D21" s="18">
-        <f>C21*B21</f>
-        <v>500000</v>
-      </c>
-      <c r="E21" s="18">
-        <f>D21*$D$17</f>
-        <v>6000000</v>
+        <f t="shared" ref="C21:C24" si="3">$D$2*B21</f>
+        <v>9000000</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="B22" s="45">
+        <f>Hoja1!B14</f>
+        <v>6.75</v>
       </c>
       <c r="C22" s="18">
-        <f t="shared" ref="C22:C25" si="3">$C$17</f>
-        <v>50000</v>
-      </c>
-      <c r="D22" s="18">
-        <f t="shared" ref="D22:D25" si="4">C22*B22</f>
-        <v>650000</v>
-      </c>
-      <c r="E22" s="18">
-        <f t="shared" ref="E22:E25" si="5">D22*$D$17</f>
-        <v>7800000</v>
+        <f t="shared" si="3"/>
+        <v>13500000</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="B23" s="45">
+        <f>Hoja1!B15</f>
+        <v>10.125</v>
       </c>
       <c r="C23" s="18">
-        <f t="shared" si="3"/>
-        <v>50000</v>
-      </c>
-      <c r="D23" s="18">
-        <f t="shared" si="4"/>
-        <v>800000</v>
-      </c>
-      <c r="E23" s="18">
-        <f t="shared" si="5"/>
-        <v>9600000</v>
+        <f>$D$2*B23</f>
+        <v>20250000</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="1">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="B24" s="45">
+        <f>Hoja1!B16</f>
+        <v>15.1875</v>
       </c>
       <c r="C24" s="18">
         <f t="shared" si="3"/>
-        <v>50000</v>
-      </c>
-      <c r="D24" s="18">
-        <f t="shared" si="4"/>
-        <v>900000</v>
-      </c>
-      <c r="E24" s="18">
-        <f t="shared" si="5"/>
-        <v>10800000</v>
+        <v>30375000</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="1">
-        <v>21</v>
-      </c>
-      <c r="C25" s="18">
-        <f t="shared" si="3"/>
-        <v>50000</v>
-      </c>
-      <c r="D25" s="18">
-        <f t="shared" si="4"/>
-        <v>1050000</v>
-      </c>
-      <c r="E25" s="18">
-        <f t="shared" si="5"/>
-        <v>12600000</v>
-      </c>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="14"/>
@@ -1338,132 +1436,126 @@
       <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="14"/>
+      <c r="A27" s="23" t="s">
+        <v>51</v>
+      </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="1"/>
+      <c r="B28" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="C28" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="1"/>
-      <c r="B29" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>55</v>
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1">
+        <v>10</v>
+      </c>
+      <c r="C29" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D29" s="18" t="e">
+        <f>C29*B29</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E29" s="18" t="e">
+        <f>D29*$D$16</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
-        <v>10</v>
-      </c>
-      <c r="C30" s="18">
-        <f>$D$3</f>
-        <v>10166.986666666666</v>
-      </c>
-      <c r="D30" s="18">
-        <f>C30*B30</f>
-        <v>101669.86666666665</v>
-      </c>
-      <c r="E30" s="18">
-        <f>D30*$D$17</f>
-        <v>1220038.3999999999</v>
+        <v>13</v>
+      </c>
+      <c r="C30" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D30" s="18" t="e">
+        <f t="shared" ref="D30:D33" si="4">C30*B30</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E30" s="18" t="e">
+        <f t="shared" ref="E30:E33" si="5">D30*$D$16</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1">
-        <v>13</v>
-      </c>
-      <c r="C31" s="18">
-        <f t="shared" ref="C31:C34" si="6">$D$3</f>
-        <v>10166.986666666666</v>
-      </c>
-      <c r="D31" s="18">
-        <f t="shared" ref="D31:D34" si="7">C31*B31</f>
-        <v>132170.82666666666</v>
-      </c>
-      <c r="E31" s="18">
-        <f t="shared" ref="E31:E34" si="8">D31*$D$17</f>
-        <v>1586049.92</v>
+        <v>16</v>
+      </c>
+      <c r="C31" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D31" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E31" s="18" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1">
-        <v>16</v>
-      </c>
-      <c r="C32" s="18">
-        <f t="shared" si="6"/>
-        <v>10166.986666666666</v>
-      </c>
-      <c r="D32" s="18">
-        <f t="shared" si="7"/>
-        <v>162671.78666666665</v>
-      </c>
-      <c r="E32" s="18">
-        <f t="shared" si="8"/>
-        <v>1952061.4399999999</v>
+        <v>18</v>
+      </c>
+      <c r="C32" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D32" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E32" s="18" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1">
-        <v>18</v>
-      </c>
-      <c r="C33" s="18">
-        <f t="shared" si="6"/>
-        <v>10166.986666666666</v>
-      </c>
-      <c r="D33" s="18">
-        <f t="shared" si="7"/>
-        <v>183005.75999999998</v>
-      </c>
-      <c r="E33" s="18">
-        <f t="shared" si="8"/>
-        <v>2196069.1199999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="1">
         <v>21</v>
       </c>
-      <c r="C34" s="18">
-        <f t="shared" si="6"/>
-        <v>10166.986666666666</v>
-      </c>
-      <c r="D34" s="18">
-        <f t="shared" si="7"/>
-        <v>213506.71999999997</v>
-      </c>
-      <c r="E34" s="18">
-        <f t="shared" si="8"/>
-        <v>2562080.6399999997</v>
+      <c r="C33" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D33" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E33" s="18" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -1472,11 +1564,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
@@ -1492,7 +1584,7 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1500,18 +1592,18 @@
         <v>22</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="D3" s="34" t="s">
         <v>70</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1519,7 +1611,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1527,7 +1619,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -1535,7 +1627,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1543,7 +1635,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1551,7 +1643,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -1609,7 +1701,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="C26" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
@@ -1640,7 +1732,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="25">
         <v>1</v>
@@ -1706,7 +1798,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1747,7 +1839,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
@@ -1807,7 +1899,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1818,15 +1910,15 @@
         <v>37</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" s="20">
         <v>3</v>
@@ -1841,7 +1933,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" s="1">
         <v>5</v>
@@ -1856,7 +1948,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -1871,7 +1963,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B52" s="1">
         <v>3</v>
@@ -1886,7 +1978,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" s="1">
         <v>1</v>
@@ -1901,7 +1993,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B54" s="1">
         <v>1</v>
@@ -1916,7 +2008,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" s="1">
         <v>1</v>
@@ -1931,7 +2023,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="C56" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D56" s="32">
         <f>SUM(D49:D55)</f>
@@ -1940,7 +2032,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="C59" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D59" s="32">
         <f>D32*D26</f>
